--- a/notebook/Cleaned Data/mental_health_df.xlsx
+++ b/notebook/Cleaned Data/mental_health_df.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="D56" t="n">
